--- a/1_Result_Tables/4_naive_QoQ_matched_to_ifoCAST_since_2021/AVERAGE_1_9_matched_error_tables_latest_since_2021.xlsx
+++ b/1_Result_Tables/4_naive_QoQ_matched_to_ifoCAST_since_2021/AVERAGE_1_9_matched_error_tables_latest_since_2021.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.03280573920504008</v>
+        <v>-0.04915694638892727</v>
       </c>
       <c r="C2">
-        <v>0.6835620009601697</v>
+        <v>0.6586326132859144</v>
       </c>
       <c r="D2">
-        <v>1.370150358650784</v>
+        <v>1.297461883598808</v>
       </c>
       <c r="E2">
-        <v>1.170534219342085</v>
+        <v>1.13906184362343</v>
       </c>
       <c r="F2">
-        <v>1.203996642517009</v>
+        <v>1.169184523175352</v>
       </c>
       <c r="G2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.09517406585147674</v>
+        <v>-0.07072591166527165</v>
       </c>
       <c r="C3">
-        <v>0.5704834040654286</v>
+        <v>0.5579505877006946</v>
       </c>
       <c r="D3">
-        <v>0.6816783724556515</v>
+        <v>0.6529064599314954</v>
       </c>
       <c r="E3">
-        <v>0.8256381607312319</v>
+        <v>0.8080262742828945</v>
       </c>
       <c r="F3">
-        <v>0.8453750862769494</v>
+        <v>0.8282610236588537</v>
       </c>
       <c r="G3">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.05832512573606587</v>
+        <v>0.03916263344646955</v>
       </c>
       <c r="C4">
-        <v>0.5781770391912622</v>
+        <v>0.552040872335158</v>
       </c>
       <c r="D4">
-        <v>0.6758485746434125</v>
+        <v>0.6357226611696118</v>
       </c>
       <c r="E4">
-        <v>0.8221001001358731</v>
+        <v>0.7973221815361792</v>
       </c>
       <c r="F4">
-        <v>0.8469218015700763</v>
+        <v>0.8208689046632819</v>
       </c>
       <c r="G4">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.06096462990789453</v>
+        <v>0.05955592157360488</v>
       </c>
       <c r="C5">
-        <v>0.5651949586891299</v>
+        <v>0.532271854806013</v>
       </c>
       <c r="D5">
-        <v>0.7686332522937956</v>
+        <v>0.7198117377579547</v>
       </c>
       <c r="E5">
-        <v>0.8767173160681815</v>
+        <v>0.8484171955812509</v>
       </c>
       <c r="F5">
-        <v>0.9052919218568529</v>
+        <v>0.8740799841134135</v>
       </c>
       <c r="G5">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.1084904213022523</v>
+        <v>0.09235442246305205</v>
       </c>
       <c r="C6">
-        <v>0.6240562802170345</v>
+        <v>0.5824508295849771</v>
       </c>
       <c r="D6">
-        <v>0.8082795576602724</v>
+        <v>0.7506227629998017</v>
       </c>
       <c r="E6">
-        <v>0.8990436906292555</v>
+        <v>0.8663848815623468</v>
       </c>
       <c r="F6">
-        <v>0.926163775434123</v>
+        <v>0.8916838547205332</v>
       </c>
       <c r="G6">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.152559117755627</v>
+        <v>0.1521483464337763</v>
       </c>
       <c r="C7">
-        <v>0.6929985174065473</v>
+        <v>0.6635260061488867</v>
       </c>
       <c r="D7">
-        <v>1.07766645906417</v>
+        <v>1.004366658952618</v>
       </c>
       <c r="E7">
-        <v>1.038107152014748</v>
+        <v>1.002180951202236</v>
       </c>
       <c r="F7">
-        <v>1.068764796018412</v>
+        <v>1.0279571060649</v>
       </c>
       <c r="G7">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.2018409674232186</v>
+        <v>0.159095420907867</v>
       </c>
       <c r="C8">
-        <v>0.7125592577190253</v>
+        <v>0.6746913222580827</v>
       </c>
       <c r="D8">
-        <v>0.9295487789228153</v>
+        <v>0.8632158529041898</v>
       </c>
       <c r="E8">
-        <v>0.9641311004852064</v>
+        <v>0.9290941033631576</v>
       </c>
       <c r="F8">
-        <v>0.9846876769961904</v>
+        <v>0.9527485895797485</v>
       </c>
       <c r="G8">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.2586634222790196</v>
+        <v>0.2207410413997515</v>
       </c>
       <c r="C9">
-        <v>0.7428371689434183</v>
+        <v>0.686169913841685</v>
       </c>
       <c r="D9">
-        <v>0.849993347894842</v>
+        <v>0.7776458313225046</v>
       </c>
       <c r="E9">
-        <v>0.921950838111687</v>
+        <v>0.8818422939066285</v>
       </c>
       <c r="F9">
-        <v>0.928113807707181</v>
+        <v>0.8917312420012032</v>
       </c>
       <c r="G9">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.2477351669225298</v>
+        <v>0.220829446489595</v>
       </c>
       <c r="C10">
-        <v>0.80232469754599</v>
+        <v>0.7371449325608843</v>
       </c>
       <c r="D10">
-        <v>1.112674965731532</v>
+        <v>1.012670326230143</v>
       </c>
       <c r="E10">
-        <v>1.054834093936829</v>
+        <v>1.006315222099985</v>
       </c>
       <c r="F10">
-        <v>1.080793048748823</v>
+        <v>1.029706341620059</v>
       </c>
       <c r="G10">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.2598643881257215</v>
+        <v>0.1936765229212045</v>
       </c>
       <c r="C11">
-        <v>0.7258487851607751</v>
+        <v>0.6934653330366425</v>
       </c>
       <c r="D11">
-        <v>1.156975336300809</v>
+        <v>1.055080256735366</v>
       </c>
       <c r="E11">
-        <v>1.075627880031384</v>
+        <v>1.027170996833227</v>
       </c>
       <c r="F11">
-        <v>1.10708019835758</v>
+        <v>1.063312257473744</v>
       </c>
       <c r="G11">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/1_Result_Tables/4_naive_QoQ_matched_to_ifoCAST_since_2021/AVERAGE_1_9_matched_error_tables_latest_since_2021.xlsx
+++ b/1_Result_Tables/4_naive_QoQ_matched_to_ifoCAST_since_2021/AVERAGE_1_9_matched_error_tables_latest_since_2021.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.04915694638892727</v>
+        <v>-0.07072591166527165</v>
       </c>
       <c r="C2">
-        <v>0.6586326132859144</v>
+        <v>0.5579505877006946</v>
       </c>
       <c r="D2">
-        <v>1.297461883598808</v>
+        <v>0.6529064599314954</v>
       </c>
       <c r="E2">
-        <v>1.13906184362343</v>
+        <v>0.8080262742828945</v>
       </c>
       <c r="F2">
-        <v>1.169184523175352</v>
+        <v>0.8282610236588537</v>
       </c>
       <c r="G2">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.07072591166527165</v>
+        <v>0.03916263344646955</v>
       </c>
       <c r="C3">
-        <v>0.5579505877006946</v>
+        <v>0.552040872335158</v>
       </c>
       <c r="D3">
-        <v>0.6529064599314954</v>
+        <v>0.6357226611696118</v>
       </c>
       <c r="E3">
-        <v>0.8080262742828945</v>
+        <v>0.7973221815361792</v>
       </c>
       <c r="F3">
-        <v>0.8282610236588537</v>
+        <v>0.8208689046632819</v>
       </c>
       <c r="G3">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.03916263344646955</v>
+        <v>0.05955592157360488</v>
       </c>
       <c r="C4">
-        <v>0.552040872335158</v>
+        <v>0.532271854806013</v>
       </c>
       <c r="D4">
-        <v>0.6357226611696118</v>
+        <v>0.7198117377579547</v>
       </c>
       <c r="E4">
-        <v>0.7973221815361792</v>
+        <v>0.8484171955812509</v>
       </c>
       <c r="F4">
-        <v>0.8208689046632819</v>
+        <v>0.8740799841134135</v>
       </c>
       <c r="G4">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.05955592157360488</v>
+        <v>0.09235442246305205</v>
       </c>
       <c r="C5">
-        <v>0.532271854806013</v>
+        <v>0.5824508295849771</v>
       </c>
       <c r="D5">
-        <v>0.7198117377579547</v>
+        <v>0.7506227629998017</v>
       </c>
       <c r="E5">
-        <v>0.8484171955812509</v>
+        <v>0.8663848815623468</v>
       </c>
       <c r="F5">
-        <v>0.8740799841134135</v>
+        <v>0.8916838547205332</v>
       </c>
       <c r="G5">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.09235442246305205</v>
+        <v>0.1521483464337763</v>
       </c>
       <c r="C6">
-        <v>0.5824508295849771</v>
+        <v>0.6635260061488867</v>
       </c>
       <c r="D6">
-        <v>0.7506227629998017</v>
+        <v>1.004366658952618</v>
       </c>
       <c r="E6">
-        <v>0.8663848815623468</v>
+        <v>1.002180951202236</v>
       </c>
       <c r="F6">
-        <v>0.8916838547205332</v>
+        <v>1.0279571060649</v>
       </c>
       <c r="G6">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.1521483464337763</v>
+        <v>0.159095420907867</v>
       </c>
       <c r="C7">
-        <v>0.6635260061488867</v>
+        <v>0.6746913222580827</v>
       </c>
       <c r="D7">
-        <v>1.004366658952618</v>
+        <v>0.8632158529041898</v>
       </c>
       <c r="E7">
-        <v>1.002180951202236</v>
+        <v>0.9290941033631576</v>
       </c>
       <c r="F7">
-        <v>1.0279571060649</v>
+        <v>0.9527485895797485</v>
       </c>
       <c r="G7">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.159095420907867</v>
+        <v>0.2207410413997515</v>
       </c>
       <c r="C8">
-        <v>0.6746913222580827</v>
+        <v>0.686169913841685</v>
       </c>
       <c r="D8">
-        <v>0.8632158529041898</v>
+        <v>0.7776458313225046</v>
       </c>
       <c r="E8">
-        <v>0.9290941033631576</v>
+        <v>0.8818422939066285</v>
       </c>
       <c r="F8">
-        <v>0.9527485895797485</v>
+        <v>0.8917312420012032</v>
       </c>
       <c r="G8">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.2207410413997515</v>
+        <v>0.220829446489595</v>
       </c>
       <c r="C9">
-        <v>0.686169913841685</v>
+        <v>0.7371449325608843</v>
       </c>
       <c r="D9">
-        <v>0.7776458313225046</v>
+        <v>1.012670326230143</v>
       </c>
       <c r="E9">
-        <v>0.8818422939066285</v>
+        <v>1.006315222099985</v>
       </c>
       <c r="F9">
-        <v>0.8917312420012032</v>
+        <v>1.029706341620059</v>
       </c>
       <c r="G9">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.220829446489595</v>
+        <v>0.1936765229212045</v>
       </c>
       <c r="C10">
-        <v>0.7371449325608843</v>
+        <v>0.6934653330366425</v>
       </c>
       <c r="D10">
-        <v>1.012670326230143</v>
+        <v>1.055080256735366</v>
       </c>
       <c r="E10">
-        <v>1.006315222099985</v>
+        <v>1.027170996833227</v>
       </c>
       <c r="F10">
-        <v>1.029706341620059</v>
+        <v>1.063312257473744</v>
       </c>
       <c r="G10">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.1936765229212045</v>
+        <v>0.2439803621284286</v>
       </c>
       <c r="C11">
-        <v>0.6934653330366425</v>
+        <v>0.799271525189887</v>
       </c>
       <c r="D11">
-        <v>1.055080256735366</v>
+        <v>1.113210894331233</v>
       </c>
       <c r="E11">
-        <v>1.027170996833227</v>
+        <v>1.05508809790047</v>
       </c>
       <c r="F11">
-        <v>1.063312257473744</v>
+        <v>1.088758484182915</v>
       </c>
       <c r="G11">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/1_Result_Tables/4_naive_QoQ_matched_to_ifoCAST_since_2021/AVERAGE_1_9_matched_error_tables_latest_since_2021.xlsx
+++ b/1_Result_Tables/4_naive_QoQ_matched_to_ifoCAST_since_2021/AVERAGE_1_9_matched_error_tables_latest_since_2021.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.07072591166527165</v>
+        <v>-0.04915694638892727</v>
       </c>
       <c r="C2">
-        <v>0.5579505877006946</v>
+        <v>0.6586326132859144</v>
       </c>
       <c r="D2">
-        <v>0.6529064599314954</v>
+        <v>1.297461883598808</v>
       </c>
       <c r="E2">
-        <v>0.8080262742828945</v>
+        <v>1.13906184362343</v>
       </c>
       <c r="F2">
-        <v>0.8282610236588537</v>
+        <v>1.169184523175352</v>
       </c>
       <c r="G2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.03916263344646955</v>
+        <v>-0.07072591166527165</v>
       </c>
       <c r="C3">
-        <v>0.552040872335158</v>
+        <v>0.5579505877006946</v>
       </c>
       <c r="D3">
-        <v>0.6357226611696118</v>
+        <v>0.6529064599314954</v>
       </c>
       <c r="E3">
-        <v>0.7973221815361792</v>
+        <v>0.8080262742828945</v>
       </c>
       <c r="F3">
-        <v>0.8208689046632819</v>
+        <v>0.8282610236588537</v>
       </c>
       <c r="G3">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.05955592157360488</v>
+        <v>0.03916263344646955</v>
       </c>
       <c r="C4">
-        <v>0.532271854806013</v>
+        <v>0.552040872335158</v>
       </c>
       <c r="D4">
-        <v>0.7198117377579547</v>
+        <v>0.6357226611696118</v>
       </c>
       <c r="E4">
-        <v>0.8484171955812509</v>
+        <v>0.7973221815361792</v>
       </c>
       <c r="F4">
-        <v>0.8740799841134135</v>
+        <v>0.8208689046632819</v>
       </c>
       <c r="G4">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.09235442246305205</v>
+        <v>0.05955592157360488</v>
       </c>
       <c r="C5">
-        <v>0.5824508295849771</v>
+        <v>0.532271854806013</v>
       </c>
       <c r="D5">
-        <v>0.7506227629998017</v>
+        <v>0.7198117377579547</v>
       </c>
       <c r="E5">
-        <v>0.8663848815623468</v>
+        <v>0.8484171955812509</v>
       </c>
       <c r="F5">
-        <v>0.8916838547205332</v>
+        <v>0.8740799841134135</v>
       </c>
       <c r="G5">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.1521483464337763</v>
+        <v>0.09235442246305205</v>
       </c>
       <c r="C6">
-        <v>0.6635260061488867</v>
+        <v>0.5824508295849771</v>
       </c>
       <c r="D6">
-        <v>1.004366658952618</v>
+        <v>0.7506227629998017</v>
       </c>
       <c r="E6">
-        <v>1.002180951202236</v>
+        <v>0.8663848815623468</v>
       </c>
       <c r="F6">
-        <v>1.0279571060649</v>
+        <v>0.8916838547205332</v>
       </c>
       <c r="G6">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.159095420907867</v>
+        <v>0.1521483464337763</v>
       </c>
       <c r="C7">
-        <v>0.6746913222580827</v>
+        <v>0.6635260061488867</v>
       </c>
       <c r="D7">
-        <v>0.8632158529041898</v>
+        <v>1.004366658952618</v>
       </c>
       <c r="E7">
-        <v>0.9290941033631576</v>
+        <v>1.002180951202236</v>
       </c>
       <c r="F7">
-        <v>0.9527485895797485</v>
+        <v>1.0279571060649</v>
       </c>
       <c r="G7">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.2207410413997515</v>
+        <v>0.159095420907867</v>
       </c>
       <c r="C8">
-        <v>0.686169913841685</v>
+        <v>0.6746913222580827</v>
       </c>
       <c r="D8">
-        <v>0.7776458313225046</v>
+        <v>0.8632158529041898</v>
       </c>
       <c r="E8">
-        <v>0.8818422939066285</v>
+        <v>0.9290941033631576</v>
       </c>
       <c r="F8">
-        <v>0.8917312420012032</v>
+        <v>0.9527485895797485</v>
       </c>
       <c r="G8">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.220829446489595</v>
+        <v>0.2207410413997515</v>
       </c>
       <c r="C9">
-        <v>0.7371449325608843</v>
+        <v>0.686169913841685</v>
       </c>
       <c r="D9">
-        <v>1.012670326230143</v>
+        <v>0.7776458313225046</v>
       </c>
       <c r="E9">
-        <v>1.006315222099985</v>
+        <v>0.8818422939066285</v>
       </c>
       <c r="F9">
-        <v>1.029706341620059</v>
+        <v>0.8917312420012032</v>
       </c>
       <c r="G9">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.1936765229212045</v>
+        <v>0.220829446489595</v>
       </c>
       <c r="C10">
-        <v>0.6934653330366425</v>
+        <v>0.7371449325608843</v>
       </c>
       <c r="D10">
-        <v>1.055080256735366</v>
+        <v>1.012670326230143</v>
       </c>
       <c r="E10">
-        <v>1.027170996833227</v>
+        <v>1.006315222099985</v>
       </c>
       <c r="F10">
-        <v>1.063312257473744</v>
+        <v>1.029706341620059</v>
       </c>
       <c r="G10">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.2439803621284286</v>
+        <v>0.1936765229212045</v>
       </c>
       <c r="C11">
-        <v>0.799271525189887</v>
+        <v>0.6934653330366425</v>
       </c>
       <c r="D11">
-        <v>1.113210894331233</v>
+        <v>1.055080256735366</v>
       </c>
       <c r="E11">
-        <v>1.05508809790047</v>
+        <v>1.027170996833227</v>
       </c>
       <c r="F11">
-        <v>1.088758484182915</v>
+        <v>1.063312257473744</v>
       </c>
       <c r="G11">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
